--- a/data/trans_camb/P38C-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Provincia-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>26.89865436396259</v>
+        <v>26.8986543639626</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>22.58714892582474</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24.7455536196859</v>
+        <v>24.74555361968592</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>21.30928567406761</v>
+        <v>21.43318222420229</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>17.11223208640261</v>
+        <v>17.74532662613121</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20.83070356731127</v>
+        <v>20.78960462707782</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>33.25031282811454</v>
+        <v>33.63651386677611</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>27.90265743461971</v>
+        <v>28.46205602962129</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28.88286521668061</v>
+        <v>29.17385547625359</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>0.3813256446440684</v>
+        <v>0.3813256446440685</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>0.2970479735802011</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.3376663774005833</v>
+        <v>0.3376663774005836</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2836801342988726</v>
+        <v>0.2845311847178742</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2106393116780192</v>
+        <v>0.2192337854369459</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2714645610832002</v>
+        <v>0.2706931997064639</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5112125902676043</v>
+        <v>0.523902754856301</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3942676123028597</v>
+        <v>0.4037644141839918</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4172985579744409</v>
+        <v>0.4209557526412644</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-12.48900836750165</v>
+        <v>-12.48900836750166</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-10.17073466602425</v>
+        <v>-10.17073466602424</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-11.34762911615246</v>
+        <v>-11.34762911615244</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-19.16342585318203</v>
+        <v>-19.52737840701861</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-14.75837995516056</v>
+        <v>-14.19583623452385</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-14.93822253611906</v>
+        <v>-15.15488286898617</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-6.488144075031298</v>
+        <v>-6.784220773855433</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-6.739984399831686</v>
+        <v>-6.256295530889225</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-7.908179942129361</v>
+        <v>-7.60564825517247</v>
       </c>
     </row>
     <row r="13">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>-0.1424535713290775</v>
+        <v>-0.1424535713290776</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.1078598233635851</v>
+        <v>-0.1078598233635849</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1246028132078026</v>
+        <v>-0.1246028132078023</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2149881172579137</v>
+        <v>-0.2174287675153686</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1552081075786398</v>
+        <v>-0.1497195600456847</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1636313018326912</v>
+        <v>-0.1650486008868868</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.07638400416696638</v>
+        <v>-0.0796495126987963</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.07224986928663411</v>
+        <v>-0.0671452225589432</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.08770149611590151</v>
+        <v>-0.08410088532041152</v>
       </c>
     </row>
     <row r="16">
@@ -779,10 +779,10 @@
         <v>4.257342576018819</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>5.065471381160769</v>
+        <v>5.065471381160758</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.734137174617814</v>
+        <v>4.734137174617792</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6543926495151713</v>
+        <v>-0.2375352510189258</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.747170445307649</v>
+        <v>1.620754360273243</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.933144625726565</v>
+        <v>1.833801208914851</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.791413699403106</v>
+        <v>8.426106168029007</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.765579255266559</v>
+        <v>8.493094119123674</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.464222547530534</v>
+        <v>7.212605439049661</v>
       </c>
     </row>
     <row r="19">
@@ -830,10 +830,10 @@
         <v>0.04757233223437867</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.05487202553380097</v>
+        <v>0.05487202553380084</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.05205813124289545</v>
+        <v>0.0520581312428952</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.005938946814404355</v>
+        <v>-0.002421712623942092</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.01862738519548511</v>
+        <v>0.01726397184594916</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.02082059951693689</v>
+        <v>0.01960446427664339</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1032214575628381</v>
+        <v>0.09636393745970996</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.0985610474910195</v>
+        <v>0.0946836733492642</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.08390271497343529</v>
+        <v>0.08068794121863795</v>
       </c>
     </row>
     <row r="22">
@@ -888,7 +888,7 @@
         <v>-0.2780168369253211</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-4.221676399810992</v>
+        <v>-4.221676399810958</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-16.5858571604403</v>
+        <v>-16.31131179259797</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.758956515573173</v>
+        <v>-5.016517542349272</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.107001072232972</v>
+        <v>-8.149955897179916</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-2.376688443528705</v>
+        <v>-2.66589475122133</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.734508131919281</v>
+        <v>3.806922409761394</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.6209709420636849</v>
+        <v>-0.4428600096715926</v>
       </c>
     </row>
     <row r="25">
@@ -939,7 +939,7 @@
         <v>-0.003032021920114275</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.0458498124042572</v>
+        <v>-0.04584981240425683</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1775869546777269</v>
+        <v>-0.1735634270450294</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.05159699182431062</v>
+        <v>-0.05390790993734878</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.08773175898044921</v>
+        <v>-0.08833677361399546</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.02616000177896561</v>
+        <v>-0.02879670940144332</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.041414027386974</v>
+        <v>0.04244389710721851</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.007107972829562269</v>
+        <v>-0.005087996844201714</v>
       </c>
     </row>
     <row r="28">
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.6752598525046949</v>
+        <v>0.6752598525047171</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-1.986684539583738</v>
+        <v>-1.986684539583761</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-0.5422569402246613</v>
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-7.244778956467987</v>
+        <v>-8.202765229728</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.755529607621213</v>
+        <v>-7.704559096677241</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.743908249534681</v>
+        <v>-5.625360692524469</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.631818706752775</v>
+        <v>7.8970635361405</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.817193172301515</v>
+        <v>3.582369412726164</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.837933025695436</v>
+        <v>4.300021983658637</v>
       </c>
     </row>
     <row r="31">
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>0.008736003306220617</v>
+        <v>0.008736003306220905</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.0224402181642425</v>
+        <v>-0.02244021816424275</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.006532386571561807</v>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.09009596303101985</v>
+        <v>-0.101003348459273</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.08409026746932587</v>
+        <v>-0.0845413285524074</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.06780903723872204</v>
+        <v>-0.06645130020153879</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1300772645362408</v>
+        <v>0.1073817555074963</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.04371315760594886</v>
+        <v>0.04177087214085339</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.06126925673374808</v>
+        <v>0.05452648381436426</v>
       </c>
     </row>
     <row r="34">
@@ -1094,10 +1094,10 @@
         </is>
       </c>
       <c r="C34" s="5" t="n">
-        <v>12.90839283352454</v>
+        <v>12.90839283352455</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>9.71092998127434</v>
+        <v>9.710929981274329</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>11.21535462042991</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>6.866599062354149</v>
+        <v>7.411536110503541</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>5.480820727914158</v>
+        <v>5.277828001965144</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>7.562695539069241</v>
+        <v>7.57599314020265</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>18.69761951188557</v>
+        <v>19.11568107378602</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>14.35222117445355</v>
+        <v>13.89725818503174</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14.71963010587853</v>
+        <v>14.82535777156912</v>
       </c>
     </row>
     <row r="37">
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>0.1602651646853679</v>
+        <v>0.1602651646853681</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.1110606087283938</v>
+        <v>0.1110606087283937</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>0.1334253175093424</v>
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.08198450747104237</v>
+        <v>0.08832293675949492</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.06089519663073614</v>
+        <v>0.05930365571828818</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.08801107749416469</v>
+        <v>0.08766947913707449</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2454079979340828</v>
+        <v>0.2533976620107229</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1715922941768614</v>
+        <v>0.1668344144322419</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.1819993403607429</v>
+        <v>0.1834277620638404</v>
       </c>
     </row>
     <row r="40">
@@ -1203,10 +1203,10 @@
         <v>18.48245128199524</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>17.42196743554502</v>
+        <v>17.42196743554501</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>17.95602788178389</v>
+        <v>17.9560278817839</v>
       </c>
     </row>
     <row r="41">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>13.03935321911886</v>
+        <v>12.91679709963388</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>13.39574465969469</v>
+        <v>13.60852585696508</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>14.75367381541915</v>
+        <v>14.37829165848549</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>24.28099709296303</v>
+        <v>23.74403559176652</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>21.4606919280684</v>
+        <v>21.57524669559112</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>21.17951159820029</v>
+        <v>21.09810503630955</v>
       </c>
     </row>
     <row r="43">
@@ -1254,10 +1254,10 @@
         <v>0.2883284381464641</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.236922811749158</v>
+        <v>0.2369228117491579</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.2604336750633438</v>
+        <v>0.2604336750633439</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1955876368569437</v>
+        <v>0.1941560559275587</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1761425530131102</v>
+        <v>0.1784906069732255</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.2087534952068965</v>
+        <v>0.2014538034049096</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4009815363768988</v>
+        <v>0.3895165450851525</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3047010662184708</v>
+        <v>0.3071376856686736</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3177516270689911</v>
+        <v>0.3153498200883397</v>
       </c>
     </row>
     <row r="46">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-33.74751347169875</v>
+        <v>-33.64867193802555</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-28.85769711912594</v>
+        <v>-28.89632583157064</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-30.14441247534586</v>
+        <v>-30.46909154925321</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-25.35172248005524</v>
+        <v>-24.77880985380035</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-22.01109314885304</v>
+        <v>-22.16679128002643</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-24.63856146867032</v>
+        <v>-24.44895688232889</v>
       </c>
     </row>
     <row r="49">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3758489770714668</v>
+        <v>-0.3733105909939506</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3045147056337162</v>
+        <v>-0.3043958280793358</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3254332065676226</v>
+        <v>-0.3303351012399482</v>
       </c>
     </row>
     <row r="51">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.2877613677389506</v>
+        <v>-0.2816744637526697</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.2353669699326667</v>
+        <v>-0.2368267266464081</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.2689610391052872</v>
+        <v>-0.2666258854807951</v>
       </c>
     </row>
     <row r="52">
@@ -1412,13 +1412,13 @@
         </is>
       </c>
       <c r="C52" s="5" t="n">
-        <v>-2.116196979239038</v>
+        <v>-2.116196979239027</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>-0.8967093798367687</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-1.484551447243343</v>
+        <v>-1.484551447243365</v>
       </c>
     </row>
     <row r="53">
@@ -1429,13 +1429,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-4.210833641588012</v>
+        <v>-4.517886113691545</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-2.575292772426326</v>
+        <v>-2.499303461655119</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-2.759870577300935</v>
+        <v>-2.919768296169158</v>
       </c>
     </row>
     <row r="54">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.1090525852571374</v>
+        <v>-0.0447137037762218</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.7560010958341993</v>
+        <v>0.8000754812533644</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-0.1416617705403342</v>
+        <v>-0.2254606517749004</v>
       </c>
     </row>
     <row r="55">
@@ -1463,13 +1463,13 @@
         </is>
       </c>
       <c r="C55" s="6" t="n">
-        <v>-0.02597390534370699</v>
+        <v>-0.02597390534370686</v>
       </c>
       <c r="D55" s="6" t="n">
         <v>-0.01025506967614189</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.01756225061427376</v>
+        <v>-0.01756225061427402</v>
       </c>
     </row>
     <row r="56">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.05165007682720354</v>
+        <v>-0.05492924725850769</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.0291868098419112</v>
+        <v>-0.02846674529130425</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.03248402440512212</v>
+        <v>-0.03446581557629871</v>
       </c>
     </row>
     <row r="57">
@@ -1497,13 +1497,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.001340322802899522</v>
+        <v>-0.0005848553704771602</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.008689793099489102</v>
+        <v>0.009339266279602767</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.001669787712734167</v>
+        <v>-0.00268677275885035</v>
       </c>
     </row>
     <row r="58">
